--- a/Aula 3 - Projeto Ciência de Dados - Previsão de Vendas/Produtos.xlsx
+++ b/Aula 3 - Projeto Ciência de Dados - Previsão de Vendas/Produtos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonp\Desktop\Intensivão de Python\Aula 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7CF91-DAA3-485B-B3A8-DF046D25C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,21 +30,12 @@
     <t>Produtos</t>
   </si>
   <si>
-    <t>Preço Base Original</t>
-  </si>
-  <si>
     <t>Moeda</t>
   </si>
   <si>
     <t>Cotação</t>
   </si>
   <si>
-    <t>Preço Base Reais</t>
-  </si>
-  <si>
-    <t>Preço Final</t>
-  </si>
-  <si>
     <t>Câmera Canon</t>
   </si>
   <si>
@@ -82,12 +67,21 @@
   </si>
   <si>
     <t>Margem</t>
+  </si>
+  <si>
+    <t>Preço Original</t>
+  </si>
+  <si>
+    <t>Preço de Compra</t>
+  </si>
+  <si>
+    <t>Preço de Venda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +159,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,9 +197,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,26 +232,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,26 +267,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,33 +465,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>999.99</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -550,13 +510,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4500</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -575,13 +535,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>899.99</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -600,13 +560,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>799</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -625,13 +585,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3000</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -650,13 +610,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>480.48</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -675,13 +635,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>350</v>
